--- a/data_year/zb/人口/人口年龄结构和抚养比.xlsx
+++ b/data_year/zb/人口/人口年龄结构和抚养比.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,589 +473,365 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29012</v>
+        <v>22259</v>
       </c>
       <c r="C2" t="n">
-        <v>88910</v>
+        <v>99938</v>
       </c>
       <c r="D2" t="n">
-        <v>8821</v>
+        <v>11894</v>
       </c>
       <c r="E2" t="n">
-        <v>32.6365817125</v>
+        <v>22.3</v>
       </c>
       <c r="F2" t="n">
-        <v>126743</v>
+        <v>134091</v>
       </c>
       <c r="G2" t="n">
-        <v>42.5596612346</v>
+        <v>34.2</v>
       </c>
       <c r="H2" t="n">
-        <v>9.923079522</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28716.075</v>
+        <v>22261</v>
       </c>
       <c r="C3" t="n">
-        <v>89849.408</v>
+        <v>100378</v>
       </c>
       <c r="D3" t="n">
-        <v>9062</v>
+        <v>12277</v>
       </c>
       <c r="E3" t="n">
-        <v>31.9602272727</v>
+        <v>22.1</v>
       </c>
       <c r="F3" t="n">
-        <v>127627</v>
+        <v>134916</v>
       </c>
       <c r="G3" t="n">
-        <v>42.0459921116</v>
+        <v>34.4</v>
       </c>
       <c r="H3" t="n">
-        <v>10.0857648389</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28774</v>
+        <v>22427</v>
       </c>
       <c r="C4" t="n">
-        <v>90302</v>
+        <v>100718</v>
       </c>
       <c r="D4" t="n">
-        <v>9377</v>
+        <v>12777</v>
       </c>
       <c r="E4" t="n">
-        <v>31.8641890545</v>
+        <v>22.2</v>
       </c>
       <c r="F4" t="n">
-        <v>128453</v>
+        <v>135922</v>
       </c>
       <c r="G4" t="n">
-        <v>42.2482337047</v>
+        <v>34.9</v>
       </c>
       <c r="H4" t="n">
-        <v>10.3840446502</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28559</v>
+        <v>22423</v>
       </c>
       <c r="C5" t="n">
-        <v>90976</v>
+        <v>101041</v>
       </c>
       <c r="D5" t="n">
-        <v>9692</v>
+        <v>13262</v>
       </c>
       <c r="E5" t="n">
-        <v>31.3917956384</v>
+        <v>22.2</v>
       </c>
       <c r="F5" t="n">
-        <v>129227</v>
+        <v>136726</v>
       </c>
       <c r="G5" t="n">
-        <v>42.0451547661</v>
+        <v>35.3</v>
       </c>
       <c r="H5" t="n">
-        <v>10.6533591277</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27947</v>
+        <v>22712</v>
       </c>
       <c r="C6" t="n">
-        <v>92184</v>
+        <v>101032</v>
       </c>
       <c r="D6" t="n">
-        <v>9857</v>
+        <v>13902</v>
       </c>
       <c r="E6" t="n">
-        <v>30.3165408314</v>
+        <v>22.5</v>
       </c>
       <c r="F6" t="n">
-        <v>129988</v>
+        <v>137646</v>
       </c>
       <c r="G6" t="n">
-        <v>41.0092857763</v>
+        <v>36.2</v>
       </c>
       <c r="H6" t="n">
-        <v>10.6927449449</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26504</v>
+        <v>22824</v>
       </c>
       <c r="C7" t="n">
-        <v>94197</v>
+        <v>100978</v>
       </c>
       <c r="D7" t="n">
-        <v>10055</v>
+        <v>14524</v>
       </c>
       <c r="E7" t="n">
-        <v>28.1367771797</v>
+        <v>22.6</v>
       </c>
       <c r="F7" t="n">
-        <v>130756</v>
+        <v>138326</v>
       </c>
       <c r="G7" t="n">
-        <v>38.8112147945</v>
+        <v>37</v>
       </c>
       <c r="H7" t="n">
-        <v>10.6744376148</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25961</v>
+        <v>23252</v>
       </c>
       <c r="C8" t="n">
-        <v>95068</v>
+        <v>100943</v>
       </c>
       <c r="D8" t="n">
-        <v>10419</v>
+        <v>15037</v>
       </c>
       <c r="E8" t="n">
-        <v>27.3078217697</v>
+        <v>22.9</v>
       </c>
       <c r="F8" t="n">
-        <v>131448</v>
+        <v>139232</v>
       </c>
       <c r="G8" t="n">
-        <v>38.267345479</v>
+        <v>37.9</v>
       </c>
       <c r="H8" t="n">
-        <v>10.9595237093</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25660</v>
+        <v>23522</v>
       </c>
       <c r="C9" t="n">
-        <v>95833</v>
+        <v>100528</v>
       </c>
       <c r="D9" t="n">
-        <v>10636</v>
+        <v>15961</v>
       </c>
       <c r="E9" t="n">
-        <v>26.7757453069</v>
+        <v>23.4</v>
       </c>
       <c r="F9" t="n">
-        <v>132129</v>
+        <v>140011</v>
       </c>
       <c r="G9" t="n">
-        <v>37.8742186929</v>
+        <v>39.3</v>
       </c>
       <c r="H9" t="n">
-        <v>11.098473386</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25166</v>
+        <v>23751</v>
       </c>
       <c r="C10" t="n">
-        <v>96680</v>
+        <v>100065</v>
       </c>
       <c r="D10" t="n">
-        <v>10956</v>
+        <v>16724</v>
       </c>
       <c r="E10" t="n">
-        <v>26.0302027307</v>
+        <v>23.7</v>
       </c>
       <c r="F10" t="n">
-        <v>132802</v>
+        <v>140541</v>
       </c>
       <c r="G10" t="n">
-        <v>37.3624327679</v>
+        <v>40.4</v>
       </c>
       <c r="H10" t="n">
-        <v>11.3322300372</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24659</v>
+        <v>23689</v>
       </c>
       <c r="C11" t="n">
-        <v>97484</v>
+        <v>99552</v>
       </c>
       <c r="D11" t="n">
-        <v>11307</v>
+        <v>17767</v>
       </c>
       <c r="E11" t="n">
-        <v>25.2954330967</v>
+        <v>23.8</v>
       </c>
       <c r="F11" t="n">
-        <v>133450</v>
+        <v>141008</v>
       </c>
       <c r="G11" t="n">
-        <v>36.8942595708</v>
+        <v>41.5</v>
       </c>
       <c r="H11" t="n">
-        <v>11.5988264741</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22259</v>
+        <v>25277</v>
       </c>
       <c r="C12" t="n">
-        <v>99938</v>
+        <v>96871</v>
       </c>
       <c r="D12" t="n">
-        <v>11894</v>
+        <v>19064</v>
       </c>
       <c r="E12" t="n">
-        <v>22.3</v>
+        <v>26.2</v>
       </c>
       <c r="F12" t="n">
-        <v>134091</v>
+        <v>141212</v>
       </c>
       <c r="G12" t="n">
-        <v>34.2</v>
+        <v>45.9</v>
       </c>
       <c r="H12" t="n">
-        <v>11.9</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22261</v>
+        <v>24678</v>
       </c>
       <c r="C13" t="n">
-        <v>100378</v>
+        <v>96526</v>
       </c>
       <c r="D13" t="n">
-        <v>12277</v>
+        <v>20056</v>
       </c>
       <c r="E13" t="n">
-        <v>22.1014528883</v>
+        <v>25.6</v>
       </c>
       <c r="F13" t="n">
-        <v>134915.543763386</v>
+        <v>141260</v>
       </c>
       <c r="G13" t="n">
-        <v>34.354775984</v>
+        <v>46.3</v>
       </c>
       <c r="H13" t="n">
-        <v>12.2533230956</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22427</v>
+        <v>23858.575</v>
       </c>
       <c r="C14" t="n">
-        <v>100718</v>
+        <v>96281.35000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>12777</v>
+        <v>21035.075</v>
       </c>
       <c r="E14" t="n">
-        <v>22.1975438981</v>
+        <v>24.8</v>
       </c>
       <c r="F14" t="n">
-        <v>135922.370716363</v>
+        <v>141175</v>
       </c>
       <c r="G14" t="n">
-        <v>34.8605121361</v>
+        <v>46.6</v>
       </c>
       <c r="H14" t="n">
-        <v>12.662968238</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>22423</v>
-      </c>
-      <c r="C15" t="n">
-        <v>101041</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13262</v>
-      </c>
-      <c r="E15" t="n">
-        <v>22.192151556157</v>
-      </c>
-      <c r="F15" t="n">
-        <v>136726.092872672</v>
-      </c>
-      <c r="G15" t="n">
-        <v>35.31799729364</v>
-      </c>
-      <c r="H15" t="n">
-        <v>13.1258457374831</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>22712</v>
-      </c>
-      <c r="C16" t="n">
-        <v>101032</v>
-      </c>
-      <c r="D16" t="n">
-        <v>13902</v>
-      </c>
-      <c r="E16" t="n">
-        <v>22.4526968518</v>
-      </c>
-      <c r="F16" t="n">
-        <v>137646.414300678</v>
-      </c>
-      <c r="G16" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>13.690790194</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>22824</v>
-      </c>
-      <c r="C17" t="n">
-        <v>100978</v>
-      </c>
-      <c r="D17" t="n">
-        <v>14524</v>
-      </c>
-      <c r="E17" t="n">
-        <v>22.6332938093</v>
-      </c>
-      <c r="F17" t="n">
-        <v>138326.414300678</v>
-      </c>
-      <c r="G17" t="n">
-        <v>36.9675471548</v>
-      </c>
-      <c r="H17" t="n">
-        <v>14.3342533454</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>23252</v>
-      </c>
-      <c r="C18" t="n">
-        <v>100943</v>
-      </c>
-      <c r="D18" t="n">
-        <v>15037</v>
-      </c>
-      <c r="E18" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="F18" t="n">
-        <v>139232.183246952</v>
-      </c>
-      <c r="G18" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>23522</v>
-      </c>
-      <c r="C19" t="n">
-        <v>100528</v>
-      </c>
-      <c r="D19" t="n">
-        <v>15961</v>
-      </c>
-      <c r="E19" t="n">
-        <v>23.3983286908078</v>
-      </c>
-      <c r="F19" t="n">
-        <v>140011</v>
-      </c>
-      <c r="G19" t="n">
-        <v>39.2757660167131</v>
-      </c>
-      <c r="H19" t="n">
-        <v>15.8774373259053</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>23751</v>
-      </c>
-      <c r="C20" t="n">
-        <v>100065</v>
-      </c>
-      <c r="D20" t="n">
-        <v>16724</v>
-      </c>
-      <c r="E20" t="n">
-        <v>23.6752317401</v>
-      </c>
-      <c r="F20" t="n">
-        <v>140541</v>
-      </c>
-      <c r="G20" t="n">
-        <v>40.4410358606</v>
-      </c>
-      <c r="H20" t="n">
-        <v>16.7658041205</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>23689</v>
-      </c>
-      <c r="C21" t="n">
-        <v>99552</v>
-      </c>
-      <c r="D21" t="n">
-        <v>17767</v>
-      </c>
-      <c r="E21" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="F21" t="n">
-        <v>141008</v>
-      </c>
-      <c r="G21" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="H21" t="n">
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>25277</v>
-      </c>
-      <c r="C22" t="n">
-        <v>96871</v>
-      </c>
-      <c r="D22" t="n">
-        <v>19064</v>
-      </c>
-      <c r="E22" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>141212</v>
-      </c>
-      <c r="G22" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="H22" t="n">
-        <v>19.7</v>
+        <v>21.8</v>
       </c>
     </row>
   </sheetData>
